--- a/data/legal_panel_for_government/rm6360/Supplier service offerings.xlsx
+++ b/data/legal_panel_for_government/rm6360/Supplier service offerings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothy.south/Documents/DFP/Test Data/LPG/RM6360/Supplier spreadsheet templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothy.south/Code/crown-marketplace-runner/code/testing/crown-marketplace-feature-tests/data/legal_panel_for_government/rm6360/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645805CD-5A97-E346-84B3-811E8C4872AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4535F4-875A-BC4B-9658-C99836B603D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="3" xr2:uid="{A9EFFC68-47AA-4544-983B-596CD71A6713}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{A9EFFC68-47AA-4544-983B-596CD71A6713}"/>
   </bookViews>
   <sheets>
     <sheet name="Lot 1" sheetId="5" r:id="rId1"/>
@@ -1458,11 +1458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2C9C39-C417-BA4E-BF7B-93E06D6001DD}">
   <dimension ref="A1:AQ50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9556,7 +9556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F507C88-1118-9146-911A-570333A4C303}">
   <dimension ref="A1:AQ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
